--- a/Spreadsheets and CSV files/Excel/Read.xlsx
+++ b/Spreadsheets and CSV files/Excel/Read.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamespayne/Documents/GitHub/powershell/Spreadsheets and CSV files/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F062A0C-8651-A846-9B8F-7323DC06B9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B035B714-05B0-7646-80D5-2AC4C683CB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35220" yWindow="1020" windowWidth="28040" windowHeight="17440" xr2:uid="{AD264BAF-A892-1C4C-A3D2-D9A4AE896506}"/>
   </bookViews>
@@ -74,10 +74,10 @@
     <t>Blue-Tounge Food Deluxe</t>
   </si>
   <si>
-    <t>Blue-Tounge Lizared</t>
-  </si>
-  <si>
     <t>Best Blue-Tounge food ever</t>
+  </si>
+  <si>
+    <t>Blue-Tounge Lizard</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,7 +505,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>45.99</v>
@@ -514,7 +514,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Spreadsheets and CSV files/Excel/Read.xlsx
+++ b/Spreadsheets and CSV files/Excel/Read.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamespayne/Documents/GitHub/powershell/Spreadsheets and CSV files/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B035B714-05B0-7646-80D5-2AC4C683CB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BDD96A-BED4-2845-BEA0-F149111C3BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35220" yWindow="1020" windowWidth="28040" windowHeight="17440" xr2:uid="{AD264BAF-A892-1C4C-A3D2-D9A4AE896506}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
